--- a/sputnik/personal/cel/cel251.xlsx
+++ b/sputnik/personal/cel/cel251.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -162,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -203,6 +203,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -513,7 +516,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -589,10 +592,16 @@
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="A7" s="18">
+        <v>43952</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="20">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="20"/>
       <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">

--- a/sputnik/personal/cel/cel251.xlsx
+++ b/sputnik/personal/cel/cel251.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Оплачено</t>
   </si>
@@ -27,19 +27,7 @@
     <t>Наименование</t>
   </si>
   <si>
-    <t>Начислен целевой взнос на ремонт дорог на территории СНТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Начислен целевой взнос на освещение центральной дороги </t>
-  </si>
-  <si>
     <t xml:space="preserve">Дата </t>
-  </si>
-  <si>
-    <t>Начислен целевой взнос на ремонт общей подъездной дороги</t>
-  </si>
-  <si>
-    <t>Начислен целевой взнос на приобретение мини трактора</t>
   </si>
 </sst>
 </file>
@@ -516,7 +504,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+      <selection activeCell="A3" sqref="A3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -531,7 +519,7 @@
     <row r="1" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>2</v>
@@ -544,63 +532,33 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>43466</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6">
-        <v>500</v>
-      </c>
+      <c r="A3" s="13"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>43466</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6">
-        <v>200</v>
-      </c>
+      <c r="A4" s="13"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
-        <v>43586</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="7">
-        <v>431</v>
-      </c>
+      <c r="A5" s="14"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
-        <v>43586</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="11">
-        <v>1449</v>
-      </c>
+      <c r="A6" s="15"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
-        <v>43952</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="20">
-        <v>1000</v>
-      </c>
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="16"/>
     </row>
